--- a/Workings/DA Capstone - Pass criteria MAKE A COPY.xlsx
+++ b/Workings/DA Capstone - Pass criteria MAKE A COPY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tishs\vscode-projects\etf-close-price\workings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C0A498-6F8A-4620-B99C-590CBD0505A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47153FA8-6186-4346-A62A-6FE1C9F34FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16035" yWindow="75" windowWidth="19065" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
